--- a/DGEA/Pheno.xlsx
+++ b/DGEA/Pheno.xlsx
@@ -146,15 +146,12 @@
     <t xml:space="preserve">GSM536487</t>
   </si>
   <si>
-    <t xml:space="preserve">GSM1053825</t>
+    <t xml:space="preserve">GSM1053826</t>
   </si>
   <si>
     <t xml:space="preserve">GSE42952</t>
   </si>
   <si>
-    <t xml:space="preserve">GSM1053826</t>
-  </si>
-  <si>
     <t xml:space="preserve">GSM1053829</t>
   </si>
   <si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">non_tumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
   </si>
   <si>
     <t xml:space="preserve">GSM463728</t>
@@ -2244,7 +2244,9 @@
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
       <c r="D36" t="s">
         <v>45</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>45</v>
@@ -2299,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -2327,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -2355,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -2369,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -2397,24 +2399,24 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
         <v>57</v>
-      </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49">
@@ -2425,10 +2427,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -2439,10 +2441,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51">
@@ -2453,10 +2455,10 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52">
@@ -2470,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -2478,96 +2480,108 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54"/>
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55"/>
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56"/>
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57"/>
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58"/>
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
       <c r="D58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59"/>
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
         <v>72</v>
@@ -2575,25 +2589,27 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61"/>
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
       <c r="D61" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
         <v>72</v>
@@ -2601,25 +2617,27 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63"/>
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
       <c r="D63" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
         <v>72</v>
@@ -2627,25 +2645,27 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65"/>
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>23</v>
+      </c>
       <c r="D65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
         <v>72</v>
@@ -2653,25 +2673,27 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67"/>
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
       <c r="D67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
         <v>72</v>
@@ -2679,25 +2701,27 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69"/>
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
       <c r="D69" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -2705,25 +2729,27 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71"/>
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
       <c r="D71" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
         <v>72</v>
@@ -2731,25 +2757,27 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73"/>
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
       <c r="D73" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
         <v>72</v>
@@ -2757,25 +2785,27 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75"/>
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
       <c r="D75" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D76" t="s">
         <v>72</v>
@@ -2783,25 +2813,27 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77"/>
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
       <c r="D77" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D78" t="s">
         <v>72</v>
@@ -2809,25 +2841,27 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79"/>
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
       <c r="D79" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D80" t="s">
         <v>72</v>
@@ -2835,25 +2869,27 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81"/>
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
       <c r="D81" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D82" t="s">
         <v>72</v>
@@ -2861,25 +2897,27 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83"/>
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
       <c r="D83" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D84" t="s">
         <v>72</v>
@@ -2887,25 +2925,27 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85"/>
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
       <c r="D85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D86" t="s">
         <v>72</v>
@@ -2913,25 +2953,27 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87"/>
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
       <c r="D87" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D88" t="s">
         <v>72</v>
@@ -2939,25 +2981,27 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C89"/>
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
       <c r="D89" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
         <v>72</v>
@@ -2965,25 +3009,27 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91"/>
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
       <c r="D91" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D92" t="s">
         <v>72</v>
@@ -2991,25 +3037,27 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
-      </c>
-      <c r="C93"/>
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
       <c r="D93" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
         <v>72</v>
@@ -3017,25 +3065,27 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>65</v>
-      </c>
-      <c r="C95"/>
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>29</v>
+      </c>
       <c r="D95" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
         <v>72</v>
@@ -3043,25 +3093,27 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
-      </c>
-      <c r="C97"/>
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>23</v>
+      </c>
       <c r="D97" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
         <v>72</v>
@@ -3069,25 +3121,27 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99"/>
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
       <c r="D99" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D100" t="s">
         <v>72</v>
@@ -3095,25 +3149,27 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
-      </c>
-      <c r="C101"/>
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
       <c r="D101" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D102" t="s">
         <v>72</v>
@@ -3121,25 +3177,27 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103"/>
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
       <c r="D103" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D104" t="s">
         <v>72</v>
@@ -3147,25 +3205,27 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105"/>
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
+      </c>
       <c r="D105" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D106" t="s">
         <v>72</v>
@@ -3173,25 +3233,27 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
-      </c>
-      <c r="C107"/>
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
       <c r="D107" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D108" t="s">
         <v>72</v>
@@ -3199,25 +3261,27 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
-      </c>
-      <c r="C109"/>
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
       <c r="D109" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D110" t="s">
         <v>72</v>
@@ -3225,25 +3289,27 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111"/>
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
       <c r="D111" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D112" t="s">
         <v>72</v>
@@ -3251,25 +3317,27 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113"/>
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
       <c r="D113" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D114" t="s">
         <v>72</v>
@@ -3277,25 +3345,27 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>65</v>
-      </c>
-      <c r="C115"/>
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
       <c r="D115" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D116" t="s">
         <v>72</v>
@@ -3303,25 +3373,27 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B117" t="s">
-        <v>65</v>
-      </c>
-      <c r="C117"/>
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
       <c r="D117" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D118" t="s">
         <v>72</v>
@@ -3329,25 +3401,27 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
-      </c>
-      <c r="C119"/>
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
       <c r="D119" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D120" t="s">
         <v>72</v>
@@ -3355,25 +3429,27 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>65</v>
-      </c>
-      <c r="C121"/>
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
       <c r="D121" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D122" t="s">
         <v>72</v>
@@ -3381,25 +3457,27 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
-      </c>
-      <c r="C123"/>
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
       <c r="D123" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D124" t="s">
         <v>72</v>
@@ -3407,25 +3485,27 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" t="s">
-        <v>65</v>
-      </c>
-      <c r="C125"/>
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
       <c r="D125" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D126" t="s">
         <v>72</v>
@@ -3433,25 +3513,27 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127"/>
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>91</v>
+      </c>
       <c r="D127" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D128" t="s">
         <v>72</v>
@@ -3459,25 +3541,27 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
-      </c>
-      <c r="C129"/>
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
       <c r="D129" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D130" t="s">
         <v>72</v>
@@ -3485,25 +3569,27 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>65</v>
-      </c>
-      <c r="C131"/>
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>6</v>
+      </c>
       <c r="D131" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D132" t="s">
         <v>72</v>
@@ -3511,25 +3597,27 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B133" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133"/>
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
       <c r="D133" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D134" t="s">
         <v>72</v>
@@ -3537,25 +3625,27 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B135" t="s">
-        <v>65</v>
-      </c>
-      <c r="C135"/>
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
       <c r="D135" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D136" t="s">
         <v>72</v>
@@ -3563,25 +3653,27 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B137" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137"/>
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>27</v>
+      </c>
       <c r="D137" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D138" t="s">
         <v>72</v>
@@ -3589,25 +3681,27 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
-        <v>65</v>
-      </c>
-      <c r="C139"/>
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
       <c r="D139" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D140" t="s">
         <v>72</v>
@@ -3615,25 +3709,27 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>65</v>
-      </c>
-      <c r="C141"/>
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>91</v>
+      </c>
       <c r="D141" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C142" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D142" t="s">
         <v>72</v>
@@ -3641,25 +3737,27 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
-      </c>
-      <c r="C143"/>
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
       <c r="D143" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D144" t="s">
         <v>72</v>
@@ -3667,25 +3765,27 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B145" t="s">
-        <v>65</v>
-      </c>
-      <c r="C145"/>
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
       <c r="D145" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D146" t="s">
         <v>72</v>
@@ -3693,25 +3793,27 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B147" t="s">
-        <v>65</v>
-      </c>
-      <c r="C147"/>
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
       <c r="D147" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D148" t="s">
         <v>72</v>
@@ -3719,37 +3821,41 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
-      </c>
-      <c r="C149"/>
+        <v>64</v>
+      </c>
+      <c r="C149" t="s">
+        <v>65</v>
+      </c>
       <c r="D149" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B150" t="s">
-        <v>65</v>
-      </c>
-      <c r="C150"/>
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
       <c r="D150" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D151" t="s">
         <v>72</v>
@@ -3757,19 +3863,21 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>65</v>
-      </c>
-      <c r="C152"/>
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
       <c r="D152" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -3783,7 +3891,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -3797,13 +3905,13 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D155" t="s">
         <v>72</v>
@@ -3811,25 +3919,27 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s">
-        <v>65</v>
-      </c>
-      <c r="C156"/>
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
       <c r="D156" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D157" t="s">
         <v>72</v>
@@ -3837,19 +3947,21 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B158" t="s">
-        <v>65</v>
-      </c>
-      <c r="C158"/>
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
       <c r="D158" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -3863,13 +3975,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D160" t="s">
         <v>72</v>
@@ -3877,25 +3989,27 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
-        <v>65</v>
-      </c>
-      <c r="C161"/>
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>27</v>
+      </c>
       <c r="D161" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D162" t="s">
         <v>72</v>
@@ -3903,25 +4017,27 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B163" t="s">
-        <v>65</v>
-      </c>
-      <c r="C163"/>
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>29</v>
+      </c>
       <c r="D163" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D164" t="s">
         <v>72</v>
@@ -3929,13 +4045,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D165" t="s">
         <v>72</v>
@@ -3943,25 +4059,27 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B166" t="s">
-        <v>65</v>
-      </c>
-      <c r="C166"/>
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>29</v>
+      </c>
       <c r="D166" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D167" t="s">
         <v>72</v>
@@ -3969,13 +4087,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D168" t="s">
         <v>72</v>
@@ -3983,19 +4101,21 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B169" t="s">
-        <v>65</v>
-      </c>
-      <c r="C169"/>
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
       <c r="D169" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -4009,13 +4129,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D171" t="s">
         <v>72</v>
@@ -4023,25 +4143,27 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B172" t="s">
-        <v>65</v>
-      </c>
-      <c r="C172"/>
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>29</v>
+      </c>
       <c r="D172" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
       <c r="C173" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D173" t="s">
         <v>72</v>
@@ -4049,7 +4171,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -4063,13 +4185,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D175" t="s">
         <v>72</v>
@@ -4077,37 +4199,41 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B176" t="s">
-        <v>65</v>
-      </c>
-      <c r="C176"/>
+        <v>64</v>
+      </c>
+      <c r="C176" t="s">
+        <v>65</v>
+      </c>
       <c r="D176" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B177" t="s">
-        <v>65</v>
-      </c>
-      <c r="C177"/>
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>6</v>
+      </c>
       <c r="D177" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D178" t="s">
         <v>72</v>
@@ -4115,25 +4241,27 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B179" t="s">
-        <v>65</v>
-      </c>
-      <c r="C179"/>
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
       <c r="D179" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D180" t="s">
         <v>72</v>
@@ -4141,25 +4269,27 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B181" t="s">
-        <v>65</v>
-      </c>
-      <c r="C181"/>
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
       <c r="D181" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D182" t="s">
         <v>72</v>
@@ -4167,13 +4297,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D183" t="s">
         <v>72</v>
@@ -4181,25 +4311,27 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B184" t="s">
-        <v>65</v>
-      </c>
-      <c r="C184"/>
+        <v>5</v>
+      </c>
+      <c r="C184" t="s">
+        <v>29</v>
+      </c>
       <c r="D184" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D185" t="s">
         <v>72</v>
@@ -4207,25 +4339,27 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B186" t="s">
-        <v>65</v>
-      </c>
-      <c r="C186"/>
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>27</v>
+      </c>
       <c r="D186" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D187" t="s">
         <v>72</v>
@@ -4233,39 +4367,41 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B188" t="s">
-        <v>65</v>
-      </c>
-      <c r="C188"/>
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>91</v>
+      </c>
       <c r="D188" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
       <c r="C189" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D190" t="s">
         <v>204</v>
@@ -4273,25 +4409,27 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B191" t="s">
-        <v>65</v>
-      </c>
-      <c r="C191"/>
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>6</v>
+      </c>
       <c r="D191" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D192" t="s">
         <v>204</v>
@@ -4299,13 +4437,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
       <c r="C193" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D193" t="s">
         <v>204</v>
@@ -4313,7 +4451,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -4327,7 +4465,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -4341,7 +4479,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -4355,13 +4493,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D197" t="s">
         <v>204</v>
@@ -4369,13 +4507,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D198" t="s">
         <v>204</v>
@@ -4383,13 +4521,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D199" t="s">
         <v>204</v>
@@ -4397,13 +4535,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D200" t="s">
         <v>204</v>
@@ -4411,13 +4549,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D201" t="s">
         <v>204</v>
@@ -4425,25 +4563,27 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B202" t="s">
-        <v>65</v>
-      </c>
-      <c r="C202"/>
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>29</v>
+      </c>
       <c r="D202" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
       <c r="C203" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="D203" t="s">
         <v>204</v>
@@ -4451,13 +4591,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
       <c r="C204" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="D204" t="s">
         <v>204</v>
@@ -4465,13 +4605,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D205" t="s">
         <v>204</v>
@@ -4479,7 +4619,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -4493,7 +4633,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -4507,7 +4647,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -4521,13 +4661,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D209" t="s">
         <v>204</v>
@@ -4535,7 +4675,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -4549,13 +4689,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D211" t="s">
         <v>204</v>
@@ -4563,13 +4703,13 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D212" t="s">
         <v>204</v>
@@ -4577,13 +4717,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D213" t="s">
         <v>204</v>
@@ -4591,25 +4731,27 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B214" t="s">
-        <v>65</v>
-      </c>
-      <c r="C214"/>
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
       <c r="D214" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D215" t="s">
         <v>204</v>
@@ -4617,13 +4759,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D216" t="s">
         <v>204</v>
@@ -4631,13 +4773,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
       <c r="C217" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D217" t="s">
         <v>204</v>
@@ -4645,13 +4787,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D218" t="s">
         <v>204</v>
@@ -4659,13 +4801,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
       </c>
       <c r="C219" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D219" t="s">
         <v>204</v>
@@ -4673,13 +4815,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D220" t="s">
         <v>204</v>
@@ -4687,13 +4829,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D221" t="s">
         <v>204</v>
@@ -4701,13 +4843,13 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D222" t="s">
         <v>204</v>
@@ -4715,13 +4857,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D223" t="s">
         <v>204</v>
@@ -4729,13 +4871,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D224" t="s">
         <v>204</v>
@@ -4743,13 +4885,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D225" t="s">
         <v>204</v>
@@ -4757,7 +4899,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -4771,13 +4913,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D227" t="s">
         <v>204</v>
@@ -4785,13 +4927,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C228" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D228" t="s">
         <v>204</v>
@@ -4799,19 +4941,21 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s">
-        <v>65</v>
-      </c>
-      <c r="C229"/>
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>6</v>
+      </c>
       <c r="D229" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -4825,7 +4969,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -4839,13 +4983,13 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D232" t="s">
         <v>204</v>
@@ -4853,13 +4997,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D233" t="s">
         <v>204</v>
@@ -4867,13 +5011,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D234" t="s">
         <v>204</v>
@@ -4881,13 +5025,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D235" t="s">
         <v>204</v>
@@ -4895,25 +5039,27 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B236" t="s">
-        <v>65</v>
-      </c>
-      <c r="C236"/>
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>6</v>
+      </c>
       <c r="D236" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D237" t="s">
         <v>204</v>
@@ -4921,13 +5067,13 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D238" t="s">
         <v>204</v>
@@ -4935,13 +5081,13 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
       <c r="C239" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D239" t="s">
         <v>204</v>
@@ -4949,13 +5095,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D240" t="s">
         <v>204</v>
@@ -4963,7 +5109,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -4977,7 +5123,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -4991,13 +5137,13 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D243" t="s">
         <v>204</v>
@@ -5005,13 +5151,13 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
       </c>
       <c r="C244" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D244" t="s">
         <v>204</v>
@@ -5019,13 +5165,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D245" t="s">
         <v>204</v>
@@ -5033,13 +5179,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D246" t="s">
         <v>204</v>
@@ -5047,13 +5193,13 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D247" t="s">
         <v>204</v>
@@ -5061,13 +5207,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
       </c>
       <c r="C248" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D248" t="s">
         <v>204</v>
@@ -5075,13 +5221,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
       </c>
       <c r="C249" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D249" t="s">
         <v>204</v>
@@ -5089,13 +5235,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D250" t="s">
         <v>204</v>
@@ -5103,7 +5249,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -5117,7 +5263,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -5131,13 +5277,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
       </c>
       <c r="C253" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D253" t="s">
         <v>204</v>
@@ -5145,13 +5291,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D254" t="s">
         <v>204</v>
@@ -5159,13 +5305,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
       </c>
       <c r="C255" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D255" t="s">
         <v>204</v>
@@ -5173,7 +5319,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -5187,13 +5333,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D257" t="s">
         <v>204</v>
@@ -5201,7 +5347,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -5215,13 +5361,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B259" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C259" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D259" t="s">
         <v>204</v>
@@ -5229,19 +5375,21 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B260" t="s">
-        <v>65</v>
-      </c>
-      <c r="C260"/>
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
       <c r="D260" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -5255,7 +5403,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -5269,7 +5417,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -5283,13 +5431,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D264" t="s">
         <v>204</v>
@@ -5297,13 +5445,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
       </c>
       <c r="C265" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D265" t="s">
         <v>204</v>
@@ -5311,13 +5459,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D266" t="s">
         <v>204</v>
@@ -5325,13 +5473,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D267" t="s">
         <v>204</v>
@@ -5339,13 +5487,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D268" t="s">
         <v>204</v>
@@ -5353,13 +5501,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D269" t="s">
         <v>204</v>
@@ -5367,13 +5515,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D270" t="s">
         <v>204</v>
@@ -5381,13 +5529,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
       </c>
       <c r="C271" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D271" t="s">
         <v>204</v>
@@ -5395,7 +5543,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -5409,7 +5557,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -5423,13 +5571,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D274" t="s">
         <v>204</v>
@@ -5437,13 +5585,13 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C275" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D275" t="s">
         <v>204</v>
@@ -5451,25 +5599,27 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B276" t="s">
-        <v>65</v>
-      </c>
-      <c r="C276"/>
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>91</v>
+      </c>
       <c r="D276" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
       </c>
       <c r="C277" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D277" t="s">
         <v>204</v>
@@ -5477,7 +5627,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -5491,13 +5641,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D279" t="s">
         <v>204</v>
@@ -5505,13 +5655,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
       <c r="C280" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D280" t="s">
         <v>204</v>
@@ -5519,7 +5669,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -5533,13 +5683,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D282" t="s">
         <v>204</v>
@@ -5547,13 +5697,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
       </c>
       <c r="C283" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D283" t="s">
         <v>204</v>
@@ -5561,7 +5711,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -5575,7 +5725,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -5589,13 +5739,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D286" t="s">
         <v>204</v>
@@ -5603,13 +5753,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
       </c>
       <c r="C287" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D287" t="s">
         <v>204</v>
@@ -5617,13 +5767,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D288" t="s">
         <v>204</v>
@@ -5631,13 +5781,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D289" t="s">
         <v>204</v>
@@ -5645,13 +5795,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D290" t="s">
         <v>204</v>
@@ -5659,7 +5809,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -5673,13 +5823,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D292" t="s">
         <v>204</v>
@@ -5687,13 +5837,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B293" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C293" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D293" t="s">
         <v>204</v>
@@ -5701,25 +5851,27 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B294" t="s">
-        <v>65</v>
-      </c>
-      <c r="C294"/>
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
       <c r="D294" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D295" t="s">
         <v>204</v>
@@ -5727,13 +5879,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C296" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D296" t="s">
         <v>204</v>
@@ -5741,19 +5893,21 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B297" t="s">
-        <v>65</v>
-      </c>
-      <c r="C297"/>
+        <v>5</v>
+      </c>
+      <c r="C297" t="s">
+        <v>29</v>
+      </c>
       <c r="D297" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -5767,7 +5921,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -5781,13 +5935,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C300" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D300" t="s">
         <v>204</v>
@@ -5795,19 +5949,21 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B301" t="s">
-        <v>65</v>
-      </c>
-      <c r="C301"/>
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
       <c r="D301" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B302" t="s">
         <v>5</v>
@@ -5821,13 +5977,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D303" t="s">
         <v>204</v>
@@ -5835,13 +5991,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B304" t="s">
         <v>5</v>
       </c>
       <c r="C304" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D304" t="s">
         <v>204</v>
@@ -5849,7 +6005,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -5863,13 +6019,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D306" t="s">
         <v>204</v>
@@ -5877,19 +6033,21 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B307" t="s">
-        <v>65</v>
-      </c>
-      <c r="C307"/>
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
       <c r="D307" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -5903,13 +6061,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D309" t="s">
         <v>204</v>
@@ -5917,13 +6075,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
       </c>
       <c r="C310" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D310" t="s">
         <v>204</v>
@@ -5931,13 +6089,13 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C311" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D311" t="s">
         <v>204</v>
@@ -5945,25 +6103,27 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B312" t="s">
-        <v>65</v>
-      </c>
-      <c r="C312"/>
+        <v>5</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
       <c r="D312" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
       </c>
       <c r="C313" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D313" t="s">
         <v>204</v>
@@ -5971,13 +6131,13 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D314" t="s">
         <v>204</v>
@@ -5985,13 +6145,13 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D315" t="s">
         <v>204</v>
@@ -5999,13 +6159,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C316" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D316" t="s">
         <v>204</v>
@@ -6013,25 +6173,27 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B317" t="s">
-        <v>65</v>
-      </c>
-      <c r="C317"/>
+        <v>5</v>
+      </c>
+      <c r="C317" t="s">
+        <v>27</v>
+      </c>
       <c r="D317" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
       </c>
       <c r="C318" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D318" t="s">
         <v>204</v>
@@ -6039,13 +6201,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
       </c>
       <c r="C319" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D319" t="s">
         <v>204</v>
@@ -6053,27 +6215,27 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
       </c>
       <c r="C320" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D320" t="s">
-        <v>204</v>
+        <v>337</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B321" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C321" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D321" t="s">
         <v>337</v>
@@ -6081,25 +6243,27 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B322" t="s">
-        <v>65</v>
-      </c>
-      <c r="C322"/>
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>29</v>
+      </c>
       <c r="D322" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B323" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C323" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D323" t="s">
         <v>337</v>
@@ -6107,25 +6271,27 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B324" t="s">
-        <v>65</v>
-      </c>
-      <c r="C324"/>
+        <v>5</v>
+      </c>
+      <c r="C324" t="s">
+        <v>29</v>
+      </c>
       <c r="D324" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C325" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D325" t="s">
         <v>337</v>
@@ -6133,25 +6299,27 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B326" t="s">
-        <v>65</v>
-      </c>
-      <c r="C326"/>
+        <v>5</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
       <c r="D326" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B327" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D327" t="s">
         <v>337</v>
@@ -6159,25 +6327,27 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B328" t="s">
-        <v>65</v>
-      </c>
-      <c r="C328"/>
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
       <c r="D328" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B329" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C329" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D329" t="s">
         <v>337</v>
@@ -6185,25 +6355,27 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B330" t="s">
-        <v>65</v>
-      </c>
-      <c r="C330"/>
+        <v>5</v>
+      </c>
+      <c r="C330" t="s">
+        <v>29</v>
+      </c>
       <c r="D330" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B331" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C331" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D331" t="s">
         <v>337</v>
@@ -6211,25 +6383,27 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B332" t="s">
-        <v>65</v>
-      </c>
-      <c r="C332"/>
+        <v>5</v>
+      </c>
+      <c r="C332" t="s">
+        <v>27</v>
+      </c>
       <c r="D332" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B333" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C333" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D333" t="s">
         <v>337</v>
@@ -6237,25 +6411,27 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B334" t="s">
-        <v>65</v>
-      </c>
-      <c r="C334"/>
+        <v>5</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
       <c r="D334" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C335" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D335" t="s">
         <v>337</v>
@@ -6263,25 +6439,27 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B336" t="s">
-        <v>65</v>
-      </c>
-      <c r="C336"/>
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>27</v>
+      </c>
       <c r="D336" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B337" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C337" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D337" t="s">
         <v>337</v>
@@ -6289,25 +6467,27 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B338" t="s">
-        <v>65</v>
-      </c>
-      <c r="C338"/>
+        <v>5</v>
+      </c>
+      <c r="C338" t="s">
+        <v>29</v>
+      </c>
       <c r="D338" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B339" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C339" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D339" t="s">
         <v>337</v>
@@ -6315,25 +6495,27 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B340" t="s">
-        <v>65</v>
-      </c>
-      <c r="C340"/>
+        <v>5</v>
+      </c>
+      <c r="C340" t="s">
+        <v>23</v>
+      </c>
       <c r="D340" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B341" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C341" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D341" t="s">
         <v>337</v>
@@ -6341,25 +6523,27 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B342" t="s">
-        <v>65</v>
-      </c>
-      <c r="C342"/>
+        <v>5</v>
+      </c>
+      <c r="C342" t="s">
+        <v>27</v>
+      </c>
       <c r="D342" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B343" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C343" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D343" t="s">
         <v>337</v>
@@ -6367,25 +6551,27 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B344" t="s">
-        <v>65</v>
-      </c>
-      <c r="C344"/>
+        <v>5</v>
+      </c>
+      <c r="C344" t="s">
+        <v>29</v>
+      </c>
       <c r="D344" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B345" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C345" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D345" t="s">
         <v>337</v>
@@ -6393,25 +6579,27 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B346" t="s">
-        <v>65</v>
-      </c>
-      <c r="C346"/>
+        <v>5</v>
+      </c>
+      <c r="C346" t="s">
+        <v>29</v>
+      </c>
       <c r="D346" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B347" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C347" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D347" t="s">
         <v>337</v>
@@ -6419,25 +6607,27 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B348" t="s">
-        <v>65</v>
-      </c>
-      <c r="C348"/>
+        <v>5</v>
+      </c>
+      <c r="C348" t="s">
+        <v>219</v>
+      </c>
       <c r="D348" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B349" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C349" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="D349" t="s">
         <v>337</v>
@@ -6445,25 +6635,27 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B350" t="s">
-        <v>65</v>
-      </c>
-      <c r="C350"/>
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
       <c r="D350" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B351" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C351" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D351" t="s">
         <v>337</v>
@@ -6471,25 +6663,27 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B352" t="s">
-        <v>65</v>
-      </c>
-      <c r="C352"/>
+        <v>5</v>
+      </c>
+      <c r="C352" t="s">
+        <v>27</v>
+      </c>
       <c r="D352" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B353" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C353" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D353" t="s">
         <v>337</v>
@@ -6497,25 +6691,27 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B354" t="s">
-        <v>65</v>
-      </c>
-      <c r="C354"/>
+        <v>5</v>
+      </c>
+      <c r="C354" t="s">
+        <v>29</v>
+      </c>
       <c r="D354" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B355" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C355" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D355" t="s">
         <v>337</v>
@@ -6523,25 +6719,27 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B356" t="s">
-        <v>65</v>
-      </c>
-      <c r="C356"/>
+        <v>5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>91</v>
+      </c>
       <c r="D356" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B357" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C357" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D357" t="s">
         <v>337</v>
@@ -6549,25 +6747,27 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B358" t="s">
-        <v>65</v>
-      </c>
-      <c r="C358"/>
+        <v>5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
       <c r="D358" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B359" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C359" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D359" t="s">
         <v>337</v>
@@ -6575,25 +6775,27 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B360" t="s">
-        <v>65</v>
-      </c>
-      <c r="C360"/>
+        <v>5</v>
+      </c>
+      <c r="C360" t="s">
+        <v>29</v>
+      </c>
       <c r="D360" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B361" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C361" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D361" t="s">
         <v>337</v>
@@ -6601,25 +6803,27 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B362" t="s">
-        <v>65</v>
-      </c>
-      <c r="C362"/>
+        <v>5</v>
+      </c>
+      <c r="C362" t="s">
+        <v>27</v>
+      </c>
       <c r="D362" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B363" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C363" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D363" t="s">
         <v>337</v>
@@ -6627,25 +6831,27 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B364" t="s">
-        <v>65</v>
-      </c>
-      <c r="C364"/>
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>91</v>
+      </c>
       <c r="D364" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B365" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C365" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D365" t="s">
         <v>337</v>
@@ -6653,25 +6859,27 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B366" t="s">
-        <v>65</v>
-      </c>
-      <c r="C366"/>
+        <v>5</v>
+      </c>
+      <c r="C366" t="s">
+        <v>29</v>
+      </c>
       <c r="D366" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B367" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C367" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D367" t="s">
         <v>337</v>
@@ -6679,25 +6887,27 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B368" t="s">
-        <v>65</v>
-      </c>
-      <c r="C368"/>
+        <v>5</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
       <c r="D368" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B369" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C369" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D369" t="s">
         <v>337</v>
@@ -6705,25 +6915,27 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B370" t="s">
-        <v>65</v>
-      </c>
-      <c r="C370"/>
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>29</v>
+      </c>
       <c r="D370" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B371" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C371" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D371" t="s">
         <v>337</v>
@@ -6731,25 +6943,27 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B372" t="s">
-        <v>65</v>
-      </c>
-      <c r="C372"/>
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
       <c r="D372" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B373" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C373" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D373" t="s">
         <v>337</v>
@@ -6757,25 +6971,27 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B374" t="s">
-        <v>65</v>
-      </c>
-      <c r="C374"/>
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>29</v>
+      </c>
       <c r="D374" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B375" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C375" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D375" t="s">
         <v>337</v>
@@ -6783,25 +6999,27 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B376" t="s">
-        <v>65</v>
-      </c>
-      <c r="C376"/>
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>29</v>
+      </c>
       <c r="D376" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B377" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C377" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D377" t="s">
         <v>337</v>
@@ -6809,25 +7027,27 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B378" t="s">
-        <v>65</v>
-      </c>
-      <c r="C378"/>
+        <v>5</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
       <c r="D378" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B379" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C379" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D379" t="s">
         <v>337</v>
@@ -6835,25 +7055,27 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B380" t="s">
-        <v>65</v>
-      </c>
-      <c r="C380"/>
+        <v>5</v>
+      </c>
+      <c r="C380" t="s">
+        <v>29</v>
+      </c>
       <c r="D380" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B381" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C381" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D381" t="s">
         <v>337</v>
@@ -6861,25 +7083,27 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B382" t="s">
-        <v>65</v>
-      </c>
-      <c r="C382"/>
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>91</v>
+      </c>
       <c r="D382" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B383" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C383" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D383" t="s">
         <v>337</v>
@@ -6887,25 +7111,27 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B384" t="s">
-        <v>65</v>
-      </c>
-      <c r="C384"/>
+        <v>5</v>
+      </c>
+      <c r="C384" t="s">
+        <v>219</v>
+      </c>
       <c r="D384" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B385" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C385" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="D385" t="s">
         <v>337</v>
@@ -6913,25 +7139,27 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B386" t="s">
-        <v>65</v>
-      </c>
-      <c r="C386"/>
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>29</v>
+      </c>
       <c r="D386" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B387" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C387" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D387" t="s">
         <v>337</v>
@@ -6939,25 +7167,27 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B388" t="s">
-        <v>65</v>
-      </c>
-      <c r="C388"/>
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>29</v>
+      </c>
       <c r="D388" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B389" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C389" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D389" t="s">
         <v>337</v>
@@ -6965,25 +7195,27 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B390" t="s">
-        <v>65</v>
-      </c>
-      <c r="C390"/>
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>29</v>
+      </c>
       <c r="D390" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B391" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C391" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D391" t="s">
         <v>337</v>
@@ -6991,25 +7223,27 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B392" t="s">
-        <v>65</v>
-      </c>
-      <c r="C392"/>
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
       <c r="D392" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B393" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C393" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D393" t="s">
         <v>337</v>
@@ -7017,25 +7251,27 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B394" t="s">
-        <v>65</v>
-      </c>
-      <c r="C394"/>
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>27</v>
+      </c>
       <c r="D394" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B395" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C395" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D395" t="s">
         <v>337</v>
@@ -7043,25 +7279,27 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B396" t="s">
-        <v>65</v>
-      </c>
-      <c r="C396"/>
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>29</v>
+      </c>
       <c r="D396" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B397" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C397" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D397" t="s">
         <v>337</v>
@@ -7069,25 +7307,27 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B398" t="s">
-        <v>65</v>
-      </c>
-      <c r="C398"/>
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
       <c r="D398" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B399" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C399" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D399" t="s">
         <v>337</v>
@@ -7095,25 +7335,27 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B400" t="s">
-        <v>65</v>
-      </c>
-      <c r="C400"/>
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
       <c r="D400" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B401" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C401" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D401" t="s">
         <v>337</v>
@@ -7121,25 +7363,27 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B402" t="s">
-        <v>65</v>
-      </c>
-      <c r="C402"/>
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>23</v>
+      </c>
       <c r="D402" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B403" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C403" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D403" t="s">
         <v>337</v>
@@ -7147,25 +7391,27 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B404" t="s">
-        <v>65</v>
-      </c>
-      <c r="C404"/>
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
       <c r="D404" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B405" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C405" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D405" t="s">
         <v>337</v>
@@ -7173,25 +7419,27 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B406" t="s">
-        <v>65</v>
-      </c>
-      <c r="C406"/>
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>27</v>
+      </c>
       <c r="D406" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B407" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C407" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D407" t="s">
         <v>337</v>
@@ -7199,25 +7447,27 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B408" t="s">
-        <v>65</v>
-      </c>
-      <c r="C408"/>
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
       <c r="D408" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B409" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C409" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D409" t="s">
         <v>337</v>
@@ -7225,25 +7475,27 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B410" t="s">
-        <v>65</v>
-      </c>
-      <c r="C410"/>
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>23</v>
+      </c>
       <c r="D410" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B411" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C411" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D411" t="s">
         <v>337</v>
@@ -7251,25 +7503,27 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B412" t="s">
-        <v>65</v>
-      </c>
-      <c r="C412"/>
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>27</v>
+      </c>
       <c r="D412" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B413" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C413" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D413" t="s">
         <v>337</v>
@@ -7277,25 +7531,27 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B414" t="s">
-        <v>65</v>
-      </c>
-      <c r="C414"/>
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>29</v>
+      </c>
       <c r="D414" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B415" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C415" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D415" t="s">
         <v>337</v>
@@ -7303,25 +7559,27 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B416" t="s">
-        <v>65</v>
-      </c>
-      <c r="C416"/>
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
       <c r="D416" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B417" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C417" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D417" t="s">
         <v>337</v>
@@ -7329,25 +7587,27 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B418" t="s">
-        <v>65</v>
-      </c>
-      <c r="C418"/>
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
       <c r="D418" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B419" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C419" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D419" t="s">
         <v>337</v>
@@ -7355,19 +7615,21 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B420" t="s">
-        <v>65</v>
-      </c>
-      <c r="C420"/>
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
       <c r="D420" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -7381,13 +7643,13 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
       </c>
       <c r="C422" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D422" t="s">
         <v>438</v>
@@ -7395,7 +7657,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -7409,7 +7671,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -7423,13 +7685,13 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
       </c>
       <c r="C425" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D425" t="s">
         <v>438</v>
@@ -7437,13 +7699,13 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
       </c>
       <c r="C426" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D426" t="s">
         <v>438</v>
@@ -7451,13 +7713,13 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
       </c>
       <c r="C427" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D427" t="s">
         <v>438</v>
@@ -7465,13 +7727,13 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
       </c>
       <c r="C428" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="D428" t="s">
         <v>438</v>
@@ -7479,13 +7741,13 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
       </c>
       <c r="C429" t="s">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="D429" t="s">
         <v>438</v>
@@ -7493,7 +7755,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -7507,7 +7769,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -7521,13 +7783,13 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
       </c>
       <c r="C432" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="D432" t="s">
         <v>438</v>
@@ -7535,13 +7797,13 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
       </c>
       <c r="C433" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="D433" t="s">
         <v>438</v>
@@ -7549,13 +7811,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
       </c>
       <c r="C434" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D434" t="s">
         <v>438</v>
@@ -7563,13 +7825,13 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
       </c>
       <c r="C435" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D435" t="s">
         <v>438</v>
@@ -7577,7 +7839,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
@@ -7591,13 +7853,13 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
       </c>
       <c r="C437" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D437" t="s">
         <v>438</v>
@@ -7605,13 +7867,13 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
       </c>
       <c r="C438" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="D438" t="s">
         <v>438</v>
@@ -7619,13 +7881,13 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
       </c>
       <c r="C439" t="s">
-        <v>219</v>
+        <v>29</v>
       </c>
       <c r="D439" t="s">
         <v>438</v>
@@ -7633,13 +7895,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
       </c>
       <c r="C440" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D440" t="s">
         <v>438</v>
@@ -7647,7 +7909,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -7661,7 +7923,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
@@ -7675,7 +7937,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -7689,13 +7951,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
       </c>
       <c r="C444" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D444" t="s">
         <v>438</v>
@@ -7703,13 +7965,13 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B445" t="s">
         <v>5</v>
       </c>
       <c r="C445" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D445" t="s">
         <v>438</v>
@@ -7717,13 +7979,13 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
       </c>
       <c r="C446" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D446" t="s">
         <v>438</v>
@@ -7731,13 +7993,13 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B447" t="s">
         <v>5</v>
       </c>
       <c r="C447" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D447" t="s">
         <v>438</v>
@@ -7745,7 +8007,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -7759,7 +8021,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -7768,20 +8030,6 @@
         <v>6</v>
       </c>
       <c r="D449" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s">
-        <v>467</v>
-      </c>
-      <c r="B450" t="s">
-        <v>5</v>
-      </c>
-      <c r="C450" t="s">
-        <v>6</v>
-      </c>
-      <c r="D450" t="s">
         <v>438</v>
       </c>
     </row>
